--- a/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-ma.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-ma.xlsx
@@ -467,162 +467,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.304878950119019</v>
+        <v>1.381871104240417</v>
       </c>
       <c r="B2" t="n">
-        <v>2.252153873443604</v>
+        <v>1.772576570510864</v>
       </c>
       <c r="C2" t="n">
-        <v>3.056122303009033</v>
+        <v>3.171048164367676</v>
       </c>
       <c r="D2" t="n">
-        <v>3.293847799301147</v>
+        <v>4.075672149658203</v>
       </c>
       <c r="E2" t="n">
-        <v>2.087223052978516</v>
+        <v>1.366642475128174</v>
       </c>
       <c r="F2" t="n">
-        <v>2.751891613006592</v>
+        <v>1.247596740722656</v>
       </c>
       <c r="G2" t="n">
-        <v>1.207709670066833</v>
+        <v>2.279419422149658</v>
       </c>
       <c r="H2" t="n">
-        <v>1.029959321022034</v>
+        <v>2.742156505584717</v>
       </c>
       <c r="I2" t="n">
-        <v>2.848533630371094</v>
+        <v>2.117888450622559</v>
       </c>
       <c r="J2" t="n">
-        <v>1.024083852767944</v>
+        <v>3.855776071548462</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.101207733154297</v>
+        <v>2.809254169464111</v>
       </c>
       <c r="B3" t="n">
-        <v>2.372392177581787</v>
+        <v>2.69117259979248</v>
       </c>
       <c r="C3" t="n">
-        <v>3.836559057235718</v>
+        <v>3.518144130706787</v>
       </c>
       <c r="D3" t="n">
-        <v>3.721220254898071</v>
+        <v>3.795923471450806</v>
       </c>
       <c r="E3" t="n">
-        <v>1.01246178150177</v>
+        <v>1.571191072463989</v>
       </c>
       <c r="F3" t="n">
-        <v>4.514642238616943</v>
+        <v>3.013154029846191</v>
       </c>
       <c r="G3" t="n">
-        <v>1.06035327911377</v>
+        <v>2.010189056396484</v>
       </c>
       <c r="H3" t="n">
-        <v>2.196250677108765</v>
+        <v>2.217423915863037</v>
       </c>
       <c r="I3" t="n">
-        <v>2.206202030181885</v>
+        <v>3.069469928741455</v>
       </c>
       <c r="J3" t="n">
-        <v>3.155283689498901</v>
+        <v>3.931485414505005</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.07522439956665</v>
+        <v>4.282708168029785</v>
       </c>
       <c r="B4" t="n">
-        <v>1.247516393661499</v>
+        <v>4.372219085693359</v>
       </c>
       <c r="C4" t="n">
-        <v>1.384048938751221</v>
+        <v>1.190455198287964</v>
       </c>
       <c r="D4" t="n">
-        <v>1.943821310997009</v>
+        <v>1.972853660583496</v>
       </c>
       <c r="E4" t="n">
-        <v>4.344919681549072</v>
+        <v>4.357132911682129</v>
       </c>
       <c r="F4" t="n">
-        <v>1.082111477851868</v>
+        <v>4.452200889587402</v>
       </c>
       <c r="G4" t="n">
-        <v>1.318345069885254</v>
+        <v>1.859707951545715</v>
       </c>
       <c r="H4" t="n">
-        <v>1.02232837677002</v>
+        <v>1.410228371620178</v>
       </c>
       <c r="I4" t="n">
-        <v>1.772778272628784</v>
+        <v>1.999208211898804</v>
       </c>
       <c r="J4" t="n">
-        <v>1.436642169952393</v>
+        <v>2.013760089874268</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.018242239952087</v>
+        <v>2.365931987762451</v>
       </c>
       <c r="B5" t="n">
-        <v>1.279422998428345</v>
+        <v>1.278902053833008</v>
       </c>
       <c r="C5" t="n">
-        <v>3.074984073638916</v>
+        <v>2.319427967071533</v>
       </c>
       <c r="D5" t="n">
-        <v>1.801904678344727</v>
+        <v>2.65063738822937</v>
       </c>
       <c r="E5" t="n">
-        <v>1.060876965522766</v>
+        <v>1.647811532020569</v>
       </c>
       <c r="F5" t="n">
-        <v>2.449445724487305</v>
+        <v>1.910538911819458</v>
       </c>
       <c r="G5" t="n">
-        <v>2.632739305496216</v>
+        <v>2.091436386108398</v>
       </c>
       <c r="H5" t="n">
-        <v>4.86284065246582</v>
+        <v>3.699665546417236</v>
       </c>
       <c r="I5" t="n">
-        <v>3.216054916381836</v>
+        <v>1.394986987113953</v>
       </c>
       <c r="J5" t="n">
-        <v>2.448945045471191</v>
+        <v>4.085126399993896</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.3482666015625</v>
+        <v>3.288830041885376</v>
       </c>
       <c r="B6" t="n">
-        <v>2.064814329147339</v>
+        <v>4.001354217529297</v>
       </c>
       <c r="C6" t="n">
-        <v>3.983450651168823</v>
+        <v>2.6762375831604</v>
       </c>
       <c r="D6" t="n">
-        <v>2.429337501525879</v>
+        <v>2.846077442169189</v>
       </c>
       <c r="E6" t="n">
-        <v>4.198855400085449</v>
+        <v>4.288558006286621</v>
       </c>
       <c r="F6" t="n">
-        <v>2.182536125183105</v>
+        <v>2.236725330352783</v>
       </c>
       <c r="G6" t="n">
-        <v>2.522006511688232</v>
+        <v>2.498030662536621</v>
       </c>
       <c r="H6" t="n">
-        <v>1.036593556404114</v>
+        <v>2.364686965942383</v>
       </c>
       <c r="I6" t="n">
-        <v>4.644203186035156</v>
+        <v>4.62723445892334</v>
       </c>
       <c r="J6" t="n">
-        <v>1.069165229797363</v>
+        <v>1.553463697433472</v>
       </c>
     </row>
   </sheetData>

--- a/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-ma.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-ma.xlsx
@@ -467,162 +467,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.381871104240417</v>
+        <v>3.069592237472534</v>
       </c>
       <c r="B2" t="n">
-        <v>1.772576570510864</v>
+        <v>1.832796216011047</v>
       </c>
       <c r="C2" t="n">
-        <v>3.171048164367676</v>
+        <v>2.817043781280518</v>
       </c>
       <c r="D2" t="n">
-        <v>4.075672149658203</v>
+        <v>4.318424701690674</v>
       </c>
       <c r="E2" t="n">
-        <v>1.366642475128174</v>
+        <v>2.009594917297363</v>
       </c>
       <c r="F2" t="n">
-        <v>1.247596740722656</v>
+        <v>3.253577947616577</v>
       </c>
       <c r="G2" t="n">
-        <v>2.279419422149658</v>
+        <v>1.982125997543335</v>
       </c>
       <c r="H2" t="n">
-        <v>2.742156505584717</v>
+        <v>1.143555760383606</v>
       </c>
       <c r="I2" t="n">
-        <v>2.117888450622559</v>
+        <v>2.54752779006958</v>
       </c>
       <c r="J2" t="n">
-        <v>3.855776071548462</v>
+        <v>1.601239919662476</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.809254169464111</v>
+        <v>2.373485565185547</v>
       </c>
       <c r="B3" t="n">
-        <v>2.69117259979248</v>
+        <v>3.973390817642212</v>
       </c>
       <c r="C3" t="n">
-        <v>3.518144130706787</v>
+        <v>3.151219129562378</v>
       </c>
       <c r="D3" t="n">
-        <v>3.795923471450806</v>
+        <v>3.879348039627075</v>
       </c>
       <c r="E3" t="n">
-        <v>1.571191072463989</v>
+        <v>2.461520433425903</v>
       </c>
       <c r="F3" t="n">
-        <v>3.013154029846191</v>
+        <v>4.308933258056641</v>
       </c>
       <c r="G3" t="n">
-        <v>2.010189056396484</v>
+        <v>1.28044605255127</v>
       </c>
       <c r="H3" t="n">
-        <v>2.217423915863037</v>
+        <v>1.971585273742676</v>
       </c>
       <c r="I3" t="n">
-        <v>3.069469928741455</v>
+        <v>1.857460260391235</v>
       </c>
       <c r="J3" t="n">
-        <v>3.931485414505005</v>
+        <v>2.773825407028198</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.282708168029785</v>
+        <v>4.253467559814453</v>
       </c>
       <c r="B4" t="n">
-        <v>4.372219085693359</v>
+        <v>2.837213516235352</v>
       </c>
       <c r="C4" t="n">
-        <v>1.190455198287964</v>
+        <v>1.255329012870789</v>
       </c>
       <c r="D4" t="n">
-        <v>1.972853660583496</v>
+        <v>2.373591899871826</v>
       </c>
       <c r="E4" t="n">
-        <v>4.357132911682129</v>
+        <v>4.288729190826416</v>
       </c>
       <c r="F4" t="n">
-        <v>4.452200889587402</v>
+        <v>1.169604301452637</v>
       </c>
       <c r="G4" t="n">
-        <v>1.859707951545715</v>
+        <v>1.27131986618042</v>
       </c>
       <c r="H4" t="n">
-        <v>1.410228371620178</v>
+        <v>2.551207780838013</v>
       </c>
       <c r="I4" t="n">
-        <v>1.999208211898804</v>
+        <v>1.766440868377686</v>
       </c>
       <c r="J4" t="n">
-        <v>2.013760089874268</v>
+        <v>1.752889037132263</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.365931987762451</v>
+        <v>1.734898328781128</v>
       </c>
       <c r="B5" t="n">
-        <v>1.278902053833008</v>
+        <v>1.261791825294495</v>
       </c>
       <c r="C5" t="n">
-        <v>2.319427967071533</v>
+        <v>3.782792091369629</v>
       </c>
       <c r="D5" t="n">
-        <v>2.65063738822937</v>
+        <v>1.279204368591309</v>
       </c>
       <c r="E5" t="n">
-        <v>1.647811532020569</v>
+        <v>2.021375179290771</v>
       </c>
       <c r="F5" t="n">
-        <v>1.910538911819458</v>
+        <v>2.12384033203125</v>
       </c>
       <c r="G5" t="n">
-        <v>2.091436386108398</v>
+        <v>2.295255184173584</v>
       </c>
       <c r="H5" t="n">
-        <v>3.699665546417236</v>
+        <v>3.055858135223389</v>
       </c>
       <c r="I5" t="n">
-        <v>1.394986987113953</v>
+        <v>1.988193988800049</v>
       </c>
       <c r="J5" t="n">
-        <v>4.085126399993896</v>
+        <v>2.444694995880127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.288830041885376</v>
+        <v>2.581921339035034</v>
       </c>
       <c r="B6" t="n">
-        <v>4.001354217529297</v>
+        <v>1.670395135879517</v>
       </c>
       <c r="C6" t="n">
-        <v>2.6762375831604</v>
+        <v>4.189010143280029</v>
       </c>
       <c r="D6" t="n">
-        <v>2.846077442169189</v>
+        <v>3.137919902801514</v>
       </c>
       <c r="E6" t="n">
-        <v>4.288558006286621</v>
+        <v>4.351630210876465</v>
       </c>
       <c r="F6" t="n">
-        <v>2.236725330352783</v>
+        <v>3.980814695358276</v>
       </c>
       <c r="G6" t="n">
-        <v>2.498030662536621</v>
+        <v>4.660565376281738</v>
       </c>
       <c r="H6" t="n">
-        <v>2.364686965942383</v>
+        <v>2.744046449661255</v>
       </c>
       <c r="I6" t="n">
-        <v>4.62723445892334</v>
+        <v>4.653340816497803</v>
       </c>
       <c r="J6" t="n">
-        <v>1.553463697433472</v>
+        <v>1.825711488723755</v>
       </c>
     </row>
   </sheetData>

--- a/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-ma.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-ma.xlsx
@@ -467,162 +467,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.069592237472534</v>
+        <v>3.823533535003662</v>
       </c>
       <c r="B2" t="n">
-        <v>1.832796216011047</v>
+        <v>2.130621433258057</v>
       </c>
       <c r="C2" t="n">
-        <v>2.817043781280518</v>
+        <v>2.748604774475098</v>
       </c>
       <c r="D2" t="n">
-        <v>4.318424701690674</v>
+        <v>4.358662605285645</v>
       </c>
       <c r="E2" t="n">
-        <v>2.009594917297363</v>
+        <v>2.717386722564697</v>
       </c>
       <c r="F2" t="n">
-        <v>3.253577947616577</v>
+        <v>1.090806365013123</v>
       </c>
       <c r="G2" t="n">
-        <v>1.982125997543335</v>
+        <v>2.36939811706543</v>
       </c>
       <c r="H2" t="n">
-        <v>1.143555760383606</v>
+        <v>1.09356164932251</v>
       </c>
       <c r="I2" t="n">
-        <v>2.54752779006958</v>
+        <v>1.824055671691895</v>
       </c>
       <c r="J2" t="n">
-        <v>1.601239919662476</v>
+        <v>3.996427774429321</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.373485565185547</v>
+        <v>2.720142602920532</v>
       </c>
       <c r="B3" t="n">
-        <v>3.973390817642212</v>
+        <v>3.167400121688843</v>
       </c>
       <c r="C3" t="n">
-        <v>3.151219129562378</v>
+        <v>4.406769752502441</v>
       </c>
       <c r="D3" t="n">
-        <v>3.879348039627075</v>
+        <v>1.843085050582886</v>
       </c>
       <c r="E3" t="n">
-        <v>2.461520433425903</v>
+        <v>2.161258697509766</v>
       </c>
       <c r="F3" t="n">
-        <v>4.308933258056641</v>
+        <v>3.998508930206299</v>
       </c>
       <c r="G3" t="n">
-        <v>1.28044605255127</v>
+        <v>1.277902960777283</v>
       </c>
       <c r="H3" t="n">
-        <v>1.971585273742676</v>
+        <v>1.467384576797485</v>
       </c>
       <c r="I3" t="n">
-        <v>1.857460260391235</v>
+        <v>1.520490527153015</v>
       </c>
       <c r="J3" t="n">
-        <v>2.773825407028198</v>
+        <v>2.897373199462891</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.253467559814453</v>
+        <v>4.634187698364258</v>
       </c>
       <c r="B4" t="n">
-        <v>2.837213516235352</v>
+        <v>1.582799434661865</v>
       </c>
       <c r="C4" t="n">
-        <v>1.255329012870789</v>
+        <v>1.857828855514526</v>
       </c>
       <c r="D4" t="n">
-        <v>2.373591899871826</v>
+        <v>3.349533319473267</v>
       </c>
       <c r="E4" t="n">
-        <v>4.288729190826416</v>
+        <v>2.533563852310181</v>
       </c>
       <c r="F4" t="n">
-        <v>1.169604301452637</v>
+        <v>2.417893886566162</v>
       </c>
       <c r="G4" t="n">
-        <v>1.27131986618042</v>
+        <v>1.940862655639648</v>
       </c>
       <c r="H4" t="n">
-        <v>2.551207780838013</v>
+        <v>2.126897096633911</v>
       </c>
       <c r="I4" t="n">
-        <v>1.766440868377686</v>
+        <v>1.469361066818237</v>
       </c>
       <c r="J4" t="n">
-        <v>1.752889037132263</v>
+        <v>3.597934007644653</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.734898328781128</v>
+        <v>2.996980428695679</v>
       </c>
       <c r="B5" t="n">
-        <v>1.261791825294495</v>
+        <v>1.672036170959473</v>
       </c>
       <c r="C5" t="n">
-        <v>3.782792091369629</v>
+        <v>2.250404357910156</v>
       </c>
       <c r="D5" t="n">
-        <v>1.279204368591309</v>
+        <v>1.214601635932922</v>
       </c>
       <c r="E5" t="n">
-        <v>2.021375179290771</v>
+        <v>3.508545398712158</v>
       </c>
       <c r="F5" t="n">
-        <v>2.12384033203125</v>
+        <v>2.188471078872681</v>
       </c>
       <c r="G5" t="n">
-        <v>2.295255184173584</v>
+        <v>2.188308715820312</v>
       </c>
       <c r="H5" t="n">
-        <v>3.055858135223389</v>
+        <v>4.074747085571289</v>
       </c>
       <c r="I5" t="n">
-        <v>1.988193988800049</v>
+        <v>3.604677438735962</v>
       </c>
       <c r="J5" t="n">
-        <v>2.444694995880127</v>
+        <v>3.735354900360107</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.581921339035034</v>
+        <v>2.027289390563965</v>
       </c>
       <c r="B6" t="n">
-        <v>1.670395135879517</v>
+        <v>3.601542949676514</v>
       </c>
       <c r="C6" t="n">
-        <v>4.189010143280029</v>
+        <v>3.837305068969727</v>
       </c>
       <c r="D6" t="n">
-        <v>3.137919902801514</v>
+        <v>3.017024278640747</v>
       </c>
       <c r="E6" t="n">
-        <v>4.351630210876465</v>
+        <v>3.897491693496704</v>
       </c>
       <c r="F6" t="n">
-        <v>3.980814695358276</v>
+        <v>4.034393310546875</v>
       </c>
       <c r="G6" t="n">
-        <v>4.660565376281738</v>
+        <v>3.288476705551147</v>
       </c>
       <c r="H6" t="n">
-        <v>2.744046449661255</v>
+        <v>4.167737007141113</v>
       </c>
       <c r="I6" t="n">
-        <v>4.653340816497803</v>
+        <v>4.63435697555542</v>
       </c>
       <c r="J6" t="n">
-        <v>1.825711488723755</v>
+        <v>2.049258232116699</v>
       </c>
     </row>
   </sheetData>

--- a/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-ma.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-recomendacoes_df-ma.xlsx
@@ -467,162 +467,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.823533535003662</v>
+        <v>2.437198162078857</v>
       </c>
       <c r="B2" t="n">
-        <v>2.130621433258057</v>
+        <v>1.350538492202759</v>
       </c>
       <c r="C2" t="n">
-        <v>2.748604774475098</v>
+        <v>1.905736565589905</v>
       </c>
       <c r="D2" t="n">
-        <v>4.358662605285645</v>
+        <v>3.909785985946655</v>
       </c>
       <c r="E2" t="n">
-        <v>2.717386722564697</v>
+        <v>2.392584800720215</v>
       </c>
       <c r="F2" t="n">
-        <v>1.090806365013123</v>
+        <v>3.704570293426514</v>
       </c>
       <c r="G2" t="n">
-        <v>2.36939811706543</v>
+        <v>2.986329555511475</v>
       </c>
       <c r="H2" t="n">
-        <v>1.09356164932251</v>
+        <v>2.841655969619751</v>
       </c>
       <c r="I2" t="n">
-        <v>1.824055671691895</v>
+        <v>2.996392726898193</v>
       </c>
       <c r="J2" t="n">
-        <v>3.996427774429321</v>
+        <v>2.005832672119141</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.720142602920532</v>
+        <v>2.676258325576782</v>
       </c>
       <c r="B3" t="n">
-        <v>3.167400121688843</v>
+        <v>3.858211994171143</v>
       </c>
       <c r="C3" t="n">
-        <v>4.406769752502441</v>
+        <v>3.207451581954956</v>
       </c>
       <c r="D3" t="n">
-        <v>1.843085050582886</v>
+        <v>4.579790115356445</v>
       </c>
       <c r="E3" t="n">
-        <v>2.161258697509766</v>
+        <v>1.471068620681763</v>
       </c>
       <c r="F3" t="n">
-        <v>3.998508930206299</v>
+        <v>3.229159355163574</v>
       </c>
       <c r="G3" t="n">
-        <v>1.277902960777283</v>
+        <v>4.031530380249023</v>
       </c>
       <c r="H3" t="n">
-        <v>1.467384576797485</v>
+        <v>2.301313638687134</v>
       </c>
       <c r="I3" t="n">
-        <v>1.520490527153015</v>
+        <v>2.903361082077026</v>
       </c>
       <c r="J3" t="n">
-        <v>2.897373199462891</v>
+        <v>3.552474975585938</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.634187698364258</v>
+        <v>3.794821262359619</v>
       </c>
       <c r="B4" t="n">
-        <v>1.582799434661865</v>
+        <v>1.432239532470703</v>
       </c>
       <c r="C4" t="n">
-        <v>1.857828855514526</v>
+        <v>1.220967769622803</v>
       </c>
       <c r="D4" t="n">
-        <v>3.349533319473267</v>
+        <v>2.767029762268066</v>
       </c>
       <c r="E4" t="n">
-        <v>2.533563852310181</v>
+        <v>2.112856864929199</v>
       </c>
       <c r="F4" t="n">
-        <v>2.417893886566162</v>
+        <v>4.434099197387695</v>
       </c>
       <c r="G4" t="n">
-        <v>1.940862655639648</v>
+        <v>1.202070474624634</v>
       </c>
       <c r="H4" t="n">
-        <v>2.126897096633911</v>
+        <v>2.744697332382202</v>
       </c>
       <c r="I4" t="n">
-        <v>1.469361066818237</v>
+        <v>2.725386142730713</v>
       </c>
       <c r="J4" t="n">
-        <v>3.597934007644653</v>
+        <v>3.216187000274658</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.996980428695679</v>
+        <v>1.313545823097229</v>
       </c>
       <c r="B5" t="n">
-        <v>1.672036170959473</v>
+        <v>2.061530113220215</v>
       </c>
       <c r="C5" t="n">
-        <v>2.250404357910156</v>
+        <v>1.178431153297424</v>
       </c>
       <c r="D5" t="n">
-        <v>1.214601635932922</v>
+        <v>3.756605386734009</v>
       </c>
       <c r="E5" t="n">
-        <v>3.508545398712158</v>
+        <v>4.001277923583984</v>
       </c>
       <c r="F5" t="n">
-        <v>2.188471078872681</v>
+        <v>3.619209766387939</v>
       </c>
       <c r="G5" t="n">
-        <v>2.188308715820312</v>
+        <v>1.946702003479004</v>
       </c>
       <c r="H5" t="n">
-        <v>4.074747085571289</v>
+        <v>4.346692085266113</v>
       </c>
       <c r="I5" t="n">
-        <v>3.604677438735962</v>
+        <v>1.77208411693573</v>
       </c>
       <c r="J5" t="n">
-        <v>3.735354900360107</v>
+        <v>3.055709838867188</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.027289390563965</v>
+        <v>2.189825296401978</v>
       </c>
       <c r="B6" t="n">
-        <v>3.601542949676514</v>
+        <v>4.554802894592285</v>
       </c>
       <c r="C6" t="n">
-        <v>3.837305068969727</v>
+        <v>3.892195701599121</v>
       </c>
       <c r="D6" t="n">
-        <v>3.017024278640747</v>
+        <v>3.251372098922729</v>
       </c>
       <c r="E6" t="n">
-        <v>3.897491693496704</v>
+        <v>3.195128679275513</v>
       </c>
       <c r="F6" t="n">
-        <v>4.034393310546875</v>
+        <v>3.14343786239624</v>
       </c>
       <c r="G6" t="n">
-        <v>3.288476705551147</v>
+        <v>3.574701309204102</v>
       </c>
       <c r="H6" t="n">
-        <v>4.167737007141113</v>
+        <v>3.234660148620605</v>
       </c>
       <c r="I6" t="n">
-        <v>4.63435697555542</v>
+        <v>2.912007331848145</v>
       </c>
       <c r="J6" t="n">
-        <v>2.049258232116699</v>
+        <v>4.152454376220703</v>
       </c>
     </row>
   </sheetData>
